--- a/team_specific_matrix/UTEP_A.xlsx
+++ b/team_specific_matrix/UTEP_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1881918819188192</v>
+        <v>0.2115942028985507</v>
       </c>
       <c r="C2">
-        <v>0.5424354243542435</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02583025830258303</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1476014760147601</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0959409594095941</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C3">
-        <v>0.006622516556291391</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02649006622516556</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7284768211920529</v>
+        <v>0.7197802197802198</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2384105960264901</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07843137254901961</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0196078431372549</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P4">
-        <v>0.6274509803921569</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2745098039215687</v>
+        <v>0.2876712328767123</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07432432432432433</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03378378378378379</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2972972972972973</v>
+        <v>0.3021978021978022</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03378378378378379</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1216216216216216</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="R6">
-        <v>0.06756756756756757</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S6">
-        <v>0.3716216216216216</v>
+        <v>0.3736263736263736</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1137724550898204</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03592814371257485</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01796407185628742</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.155688622754491</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03592814371257485</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1676646706586826</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R7">
-        <v>0.05988023952095808</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="S7">
-        <v>0.4131736526946108</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1265822784810127</v>
+        <v>0.1246819338422392</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03164556962025317</v>
+        <v>0.0356234096692112</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04430379746835443</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1044303797468354</v>
+        <v>0.1043256997455471</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02215189873417722</v>
+        <v>0.0178117048346056</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1455696202531646</v>
+        <v>0.1552162849872774</v>
       </c>
       <c r="R8">
-        <v>0.09177215189873418</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="S8">
-        <v>0.4335443037974683</v>
+        <v>0.4325699745547074</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1376146788990826</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834862385321101</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06422018348623854</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1284403669724771</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01834862385321101</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1376146788990826</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="R9">
-        <v>0.05504587155963303</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="S9">
-        <v>0.4403669724770642</v>
+        <v>0.4113475177304964</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1355421686746988</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03413654618473896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06425702811244979</v>
+        <v>0.06200941915227629</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1194779116465863</v>
+        <v>0.1169544740973312</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009036144578313253</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1837349397590362</v>
+        <v>0.2032967032967033</v>
       </c>
       <c r="R10">
-        <v>0.05020080321285141</v>
+        <v>0.05259026687598116</v>
       </c>
       <c r="S10">
-        <v>0.4036144578313253</v>
+        <v>0.3830455259026688</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1185770750988142</v>
+        <v>0.1261829652996845</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09881422924901186</v>
+        <v>0.1041009463722398</v>
       </c>
       <c r="K11">
-        <v>0.1897233201581028</v>
+        <v>0.1829652996845426</v>
       </c>
       <c r="L11">
-        <v>0.5889328063241107</v>
+        <v>0.580441640378549</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003952569169960474</v>
+        <v>0.006309148264984227</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7169811320754716</v>
+        <v>0.6989795918367347</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.220125786163522</v>
+        <v>0.2397959183673469</v>
       </c>
       <c r="K12">
-        <v>0.01257861635220126</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="L12">
-        <v>0.01257861635220126</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03773584905660377</v>
+        <v>0.03061224489795918</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2916666666666667</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03105590062111801</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.04968944099378882</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="J15">
-        <v>0.391304347826087</v>
+        <v>0.374384236453202</v>
       </c>
       <c r="K15">
-        <v>0.08074534161490683</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01863354037267081</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06832298136645963</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2298136645962733</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01675977653631285</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1508379888268156</v>
+        <v>0.15625</v>
       </c>
       <c r="I16">
-        <v>0.05586592178770949</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="J16">
-        <v>0.3966480446927375</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="K16">
-        <v>0.1284916201117318</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05027932960893855</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03910614525139665</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1620111731843575</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01730103806228374</v>
+        <v>0.0173697270471464</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1522491349480969</v>
+        <v>0.1488833746898263</v>
       </c>
       <c r="I17">
-        <v>0.06574394463667819</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J17">
-        <v>0.4429065743944637</v>
+        <v>0.4640198511166253</v>
       </c>
       <c r="K17">
-        <v>0.1280276816608996</v>
+        <v>0.1116625310173697</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02422145328719723</v>
+        <v>0.0173697270471464</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05882352941176471</v>
+        <v>0.05707196029776675</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1107266435986159</v>
+        <v>0.119106699751861</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03738317757009346</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1495327102803738</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="I18">
-        <v>0.07476635514018691</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="J18">
-        <v>0.4672897196261682</v>
+        <v>0.4577464788732394</v>
       </c>
       <c r="K18">
-        <v>0.06542056074766354</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04672897196261682</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06542056074766354</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09345794392523364</v>
+        <v>0.09859154929577464</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01932858596134283</v>
+        <v>0.0180623973727422</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2105798575788403</v>
+        <v>0.2019704433497537</v>
       </c>
       <c r="I19">
-        <v>0.06612410986775177</v>
+        <v>0.06732348111658457</v>
       </c>
       <c r="J19">
-        <v>0.3865717192268566</v>
+        <v>0.3916256157635468</v>
       </c>
       <c r="K19">
-        <v>0.1220752797558494</v>
+        <v>0.1215106732348112</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02746693794506612</v>
+        <v>0.02791461412151067</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07121057985757884</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09664292980671414</v>
+        <v>0.1001642036124795</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UTEP_A.xlsx
+++ b/team_specific_matrix/UTEP_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2115942028985507</v>
+        <v>0.210958904109589</v>
       </c>
       <c r="C2">
-        <v>0.5101449275362319</v>
+        <v>0.5123287671232877</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02608695652173913</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1565217391304348</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09565217391304348</v>
+        <v>0.09315068493150686</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005494505494505495</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C3">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03296703296703297</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7197802197802198</v>
+        <v>0.71875</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06593406593406594</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005494505494505495</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03296703296703297</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3021978021978022</v>
+        <v>0.3015075376884422</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03296703296703297</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1153846153846154</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="R6">
-        <v>0.07142857142857142</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S6">
-        <v>0.3736263736263736</v>
+        <v>0.3718592964824121</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1083743842364532</v>
+        <v>0.1221719457013575</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03940886699507389</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02463054187192118</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03448275862068965</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1724137931034483</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R7">
-        <v>0.06403940886699508</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S7">
-        <v>0.4137931034482759</v>
+        <v>0.4027149321266968</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1246819338422392</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0356234096692112</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03816793893129771</v>
+        <v>0.04028436018957346</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1043256997455471</v>
+        <v>0.1066350710900474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0178117048346056</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1552162849872774</v>
+        <v>0.1587677725118483</v>
       </c>
       <c r="R8">
-        <v>0.0916030534351145</v>
+        <v>0.0924170616113744</v>
       </c>
       <c r="S8">
-        <v>0.4325699745547074</v>
+        <v>0.433649289099526</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1276595744680851</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06382978723404255</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09929078014184398</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1773049645390071</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="R9">
-        <v>0.07801418439716312</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="S9">
-        <v>0.4113475177304964</v>
+        <v>0.4013157894736842</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1326530612244898</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03846153846153846</v>
+        <v>0.03610906411201179</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06200941915227629</v>
+        <v>0.06263817243920412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1169544740973312</v>
+        <v>0.1149594694178335</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01098901098901099</v>
+        <v>0.0103168754605748</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2032967032967033</v>
+        <v>0.2063375092114959</v>
       </c>
       <c r="R10">
-        <v>0.05259026687598116</v>
+        <v>0.05305821665438467</v>
       </c>
       <c r="S10">
-        <v>0.3830455259026688</v>
+        <v>0.3861459100957996</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1261829652996845</v>
+        <v>0.1289398280802292</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1041009463722398</v>
+        <v>0.09742120343839542</v>
       </c>
       <c r="K11">
-        <v>0.1829652996845426</v>
+        <v>0.1833810888252149</v>
       </c>
       <c r="L11">
-        <v>0.580441640378549</v>
+        <v>0.5845272206303725</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006309148264984227</v>
+        <v>0.005730659025787965</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6989795918367347</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2397959183673469</v>
+        <v>0.2465116279069768</v>
       </c>
       <c r="K12">
-        <v>0.01020408163265306</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="L12">
-        <v>0.02040816326530612</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03061224489795918</v>
+        <v>0.02790697674418605</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02463054187192118</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="I15">
-        <v>0.04926108374384237</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="J15">
-        <v>0.374384236453202</v>
+        <v>0.3828828828828829</v>
       </c>
       <c r="K15">
-        <v>0.08866995073891626</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01477832512315271</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06403940886699508</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2413793103448276</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01339285714285714</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.15625</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="I16">
-        <v>0.06696428571428571</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="J16">
-        <v>0.4017857142857143</v>
+        <v>0.405982905982906</v>
       </c>
       <c r="K16">
-        <v>0.1160714285714286</v>
+        <v>0.1239316239316239</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04464285714285714</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04464285714285714</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.15625</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0173697270471464</v>
+        <v>0.01822323462414579</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1488833746898263</v>
+        <v>0.1435079726651481</v>
       </c>
       <c r="I17">
-        <v>0.06451612903225806</v>
+        <v>0.06150341685649203</v>
       </c>
       <c r="J17">
-        <v>0.4640198511166253</v>
+        <v>0.4646924829157175</v>
       </c>
       <c r="K17">
-        <v>0.1116625310173697</v>
+        <v>0.1161731207289294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0173697270471464</v>
+        <v>0.01594533029612756</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05707196029776675</v>
+        <v>0.05922551252847381</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.119106699751861</v>
+        <v>0.1207289293849658</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0352112676056338</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1549295774647887</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I18">
-        <v>0.06338028169014084</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="J18">
-        <v>0.4577464788732394</v>
+        <v>0.4407894736842105</v>
       </c>
       <c r="K18">
-        <v>0.08450704225352113</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0352112676056338</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07042253521126761</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09859154929577464</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0180623973727422</v>
+        <v>0.01844734819369715</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2019704433497537</v>
+        <v>0.2044581091468101</v>
       </c>
       <c r="I19">
-        <v>0.06732348111658457</v>
+        <v>0.06917755572636433</v>
       </c>
       <c r="J19">
-        <v>0.3916256157635468</v>
+        <v>0.3858570330514988</v>
       </c>
       <c r="K19">
-        <v>0.1215106732348112</v>
+        <v>0.1245196003074558</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02791461412151067</v>
+        <v>0.02613374327440431</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07142857142857142</v>
+        <v>0.07302075326671791</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1001642036124795</v>
+        <v>0.0983858570330515</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UTEP_A.xlsx
+++ b/team_specific_matrix/UTEP_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.210958904109589</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C2">
-        <v>0.5123287671232877</v>
+        <v>0.4987080103359173</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0273972602739726</v>
+        <v>0.02842377260981912</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1561643835616438</v>
+        <v>0.1602067183462532</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09315068493150686</v>
+        <v>0.09560723514211886</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005208333333333333</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="C3">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.71875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.234375</v>
+        <v>0.2323232323232323</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0958904109589041</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0136986301369863</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P4">
-        <v>0.6027397260273972</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2876712328767123</v>
+        <v>0.2948717948717949</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06030150753768844</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005025125628140704</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04020100502512563</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3015075376884422</v>
+        <v>0.3101851851851852</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03015075376884422</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1155778894472362</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S6">
-        <v>0.3718592964824121</v>
+        <v>0.3564814814814815</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1221719457013575</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03619909502262444</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03167420814479638</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1402714932126697</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03167420814479638</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1764705882352941</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="R7">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S7">
-        <v>0.4027149321266968</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1184834123222749</v>
+        <v>0.1191011235955056</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03317535545023697</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04028436018957346</v>
+        <v>0.04269662921348315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1066350710900474</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01658767772511848</v>
+        <v>0.01573033707865169</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1587677725118483</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="R8">
-        <v>0.0924170616113744</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="S8">
-        <v>0.433649289099526</v>
+        <v>0.4292134831460674</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.131578947368421</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01973684210526316</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06578947368421052</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09210526315789473</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02631578947368421</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1907894736842105</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="R9">
-        <v>0.07236842105263158</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="S9">
-        <v>0.4013157894736842</v>
+        <v>0.4036144578313253</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1304347826086956</v>
+        <v>0.1274845784784099</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03610906411201179</v>
+        <v>0.03495544893762851</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06263817243920412</v>
+        <v>0.06031528444139822</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1149594694178335</v>
+        <v>0.113776559287183</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0103168754605748</v>
+        <v>0.01028101439342015</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2063375092114959</v>
+        <v>0.2090472926662097</v>
       </c>
       <c r="R10">
-        <v>0.05305821665438467</v>
+        <v>0.05825908156271419</v>
       </c>
       <c r="S10">
-        <v>0.3861459100957996</v>
+        <v>0.3858807402330363</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1289398280802292</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09742120343839542</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K11">
-        <v>0.1833810888252149</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="L11">
-        <v>0.5845272206303725</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005730659025787965</v>
+        <v>0.005376344086021506</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6976744186046512</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2465116279069768</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="K12">
-        <v>0.009302325581395349</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="L12">
-        <v>0.0186046511627907</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02790697674418605</v>
+        <v>0.03070175438596491</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3035714285714285</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06557377049180328</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02252252252252252</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1486486486486487</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="I15">
-        <v>0.04504504504504504</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="J15">
-        <v>0.3828828828828829</v>
+        <v>0.4092827004219409</v>
       </c>
       <c r="K15">
-        <v>0.09009009009009009</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06756756756756757</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2297297297297297</v>
+        <v>0.2278481012658228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1495726495726496</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="I16">
-        <v>0.06837606837606838</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="J16">
-        <v>0.405982905982906</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="K16">
-        <v>0.1239316239316239</v>
+        <v>0.1260162601626016</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04273504273504274</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04273504273504274</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1538461538461539</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01822323462414579</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1435079726651481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0.06150341685649203</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="J17">
-        <v>0.4646924829157175</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="K17">
-        <v>0.1161731207289294</v>
+        <v>0.115546218487395</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01594533029612756</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05922551252847381</v>
+        <v>0.06092436974789916</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1207289293849658</v>
+        <v>0.1218487394957983</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03947368421052631</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1578947368421053</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="I18">
-        <v>0.06578947368421052</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="J18">
-        <v>0.4407894736842105</v>
+        <v>0.4550898203592814</v>
       </c>
       <c r="K18">
-        <v>0.08552631578947369</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03289473684210526</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07236842105263158</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1052631578947368</v>
+        <v>0.1017964071856287</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01844734819369715</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2044581091468101</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="I19">
-        <v>0.06917755572636433</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J19">
-        <v>0.3858570330514988</v>
+        <v>0.3823953823953824</v>
       </c>
       <c r="K19">
-        <v>0.1245196003074558</v>
+        <v>0.1248196248196248</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02613374327440431</v>
+        <v>0.0266955266955267</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07302075326671791</v>
+        <v>0.07431457431457432</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0983858570330515</v>
+        <v>0.09884559884559885</v>
       </c>
     </row>
   </sheetData>
